--- a/www.eia.gov/electricity/monthly/xls/table_2_11_a.xlsx
+++ b/www.eia.gov/electricity/monthly/xls/table_2_11_a.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_10\EPM_2016_10P_Run_at_2016_12_22_094008\Output\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_11\EPM_2016_11P_Run_at_2017_01_19_170034\Output\XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,12 +22,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="78">
   <si>
     <t>Table 2.11.A. Consumption of Natural Gas for Electricity Generation by State, by Sector,</t>
   </si>
   <si>
-    <t>October 2016 and October 2015 (Million Cubic Feet)</t>
+    <t>November 2016 and November 2015 (Million Cubic Feet)</t>
   </si>
   <si>
     <t/>
@@ -55,10 +55,10 @@
     <t>Industrial Sector</t>
   </si>
   <si>
-    <t>October 2016</t>
-  </si>
-  <si>
-    <t>October 2015</t>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>November 2015</t>
   </si>
   <si>
     <t>Percentage Change</t>
@@ -1356,37 +1356,37 @@
         <v>13</v>
       </c>
       <c r="B6" s="13">
-        <v>26956</v>
+        <v>26140</v>
       </c>
       <c r="C6" s="13">
-        <v>35645</v>
+        <v>29532</v>
       </c>
       <c r="D6" s="14">
-        <v>-0.24</v>
+        <v>-0.11</v>
       </c>
       <c r="E6" s="13">
-        <v>132</v>
+        <v>32</v>
       </c>
       <c r="F6" s="13">
-        <v>242</v>
+        <v>264</v>
       </c>
       <c r="G6" s="13">
-        <v>25734</v>
+        <v>24792</v>
       </c>
       <c r="H6" s="13">
-        <v>33851</v>
+        <v>27807</v>
       </c>
       <c r="I6" s="13">
-        <v>543</v>
+        <v>694</v>
       </c>
       <c r="J6" s="13">
-        <v>786</v>
+        <v>734</v>
       </c>
       <c r="K6" s="13">
-        <v>548</v>
+        <v>623</v>
       </c>
       <c r="L6" s="13">
-        <v>765</v>
+        <v>726</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -1394,37 +1394,37 @@
         <v>14</v>
       </c>
       <c r="B7" s="16">
-        <v>9994</v>
+        <v>10400</v>
       </c>
       <c r="C7" s="16">
-        <v>11006</v>
+        <v>10545</v>
       </c>
       <c r="D7" s="17">
-        <v>-9.1999999999999998E-2</v>
+        <v>-1.4E-2</v>
       </c>
       <c r="E7" s="16">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F7" s="16">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="G7" s="16">
-        <v>9457</v>
+        <v>9729</v>
       </c>
       <c r="H7" s="16">
-        <v>10228</v>
+        <v>9737</v>
       </c>
       <c r="I7" s="16" t="s">
         <v>15</v>
       </c>
       <c r="J7" s="16">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="K7" s="16" t="s">
         <v>15</v>
       </c>
       <c r="L7" s="16">
-        <v>397</v>
+        <v>416</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -1432,13 +1432,13 @@
         <v>16</v>
       </c>
       <c r="B8" s="16">
-        <v>1958</v>
+        <v>1302</v>
       </c>
       <c r="C8" s="16">
-        <v>2821</v>
+        <v>2056</v>
       </c>
       <c r="D8" s="17">
-        <v>-0.31</v>
+        <v>-0.37</v>
       </c>
       <c r="E8" s="16">
         <v>0</v>
@@ -1447,22 +1447,22 @@
         <v>0</v>
       </c>
       <c r="G8" s="16">
-        <v>1769</v>
+        <v>1122</v>
       </c>
       <c r="H8" s="16">
-        <v>2515</v>
+        <v>1811</v>
       </c>
       <c r="I8" s="16" t="s">
         <v>15</v>
       </c>
       <c r="J8" s="16">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="K8" s="16">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="L8" s="16">
-        <v>257</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -1470,37 +1470,37 @@
         <v>17</v>
       </c>
       <c r="B9" s="16">
-        <v>9617</v>
+        <v>8377</v>
       </c>
       <c r="C9" s="16">
-        <v>14498</v>
+        <v>8783</v>
       </c>
       <c r="D9" s="17">
-        <v>-0.34</v>
+        <v>-4.5999999999999999E-2</v>
       </c>
       <c r="E9" s="16">
-        <v>128</v>
+        <v>18</v>
       </c>
       <c r="F9" s="16">
-        <v>202</v>
+        <v>167</v>
       </c>
       <c r="G9" s="16">
-        <v>9178</v>
+        <v>7951</v>
       </c>
       <c r="H9" s="16">
-        <v>13874</v>
+        <v>8215</v>
       </c>
       <c r="I9" s="16">
-        <v>238</v>
+        <v>320</v>
       </c>
       <c r="J9" s="16">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="K9" s="16" t="s">
         <v>15</v>
       </c>
       <c r="L9" s="16">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -1508,37 +1508,37 @@
         <v>18</v>
       </c>
       <c r="B10" s="16">
-        <v>2385</v>
+        <v>3108</v>
       </c>
       <c r="C10" s="16">
-        <v>3406</v>
+        <v>3830</v>
       </c>
       <c r="D10" s="17">
-        <v>-0.3</v>
+        <v>-0.19</v>
       </c>
       <c r="E10" s="16">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="16">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="G10" s="16">
-        <v>2362</v>
+        <v>3078</v>
       </c>
       <c r="H10" s="16">
-        <v>3374</v>
+        <v>3762</v>
       </c>
       <c r="I10" s="16" t="s">
         <v>15</v>
       </c>
       <c r="J10" s="16">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K10" s="16" t="s">
         <v>15</v>
       </c>
       <c r="L10" s="16">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -1546,13 +1546,13 @@
         <v>19</v>
       </c>
       <c r="B11" s="16">
-        <v>3001</v>
+        <v>2951</v>
       </c>
       <c r="C11" s="16">
-        <v>3914</v>
+        <v>4317</v>
       </c>
       <c r="D11" s="17">
-        <v>-0.23</v>
+        <v>-0.32</v>
       </c>
       <c r="E11" s="16">
         <v>0</v>
@@ -1561,16 +1561,16 @@
         <v>0</v>
       </c>
       <c r="G11" s="16">
-        <v>2968</v>
+        <v>2912</v>
       </c>
       <c r="H11" s="16">
-        <v>3860</v>
+        <v>4282</v>
       </c>
       <c r="I11" s="16" t="s">
         <v>15</v>
       </c>
       <c r="J11" s="16">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="K11" s="16">
         <v>0</v>
@@ -1587,7 +1587,7 @@
         <v>15</v>
       </c>
       <c r="C12" s="16">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="D12" s="17" t="s">
         <v>15</v>
@@ -1596,7 +1596,7 @@
         <v>2</v>
       </c>
       <c r="F12" s="16">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="G12" s="16">
         <v>0</v>
@@ -1608,7 +1608,7 @@
         <v>15</v>
       </c>
       <c r="J12" s="16">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="K12" s="16">
         <v>0</v>
@@ -1622,37 +1622,37 @@
         <v>21</v>
       </c>
       <c r="B13" s="13">
-        <v>98765</v>
+        <v>87215</v>
       </c>
       <c r="C13" s="13">
-        <v>100603</v>
+        <v>91476</v>
       </c>
       <c r="D13" s="14">
-        <v>-1.7999999999999999E-2</v>
+        <v>-4.7E-2</v>
       </c>
       <c r="E13" s="13">
-        <v>7353</v>
+        <v>6570</v>
       </c>
       <c r="F13" s="13">
-        <v>8275</v>
+        <v>8144</v>
       </c>
       <c r="G13" s="13">
-        <v>89867</v>
+        <v>78835</v>
       </c>
       <c r="H13" s="13">
-        <v>90387</v>
+        <v>81530</v>
       </c>
       <c r="I13" s="13">
-        <v>742</v>
+        <v>824</v>
       </c>
       <c r="J13" s="13">
-        <v>902</v>
+        <v>865</v>
       </c>
       <c r="K13" s="13">
-        <v>803</v>
+        <v>986</v>
       </c>
       <c r="L13" s="13">
-        <v>1039</v>
+        <v>937</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -1660,25 +1660,25 @@
         <v>22</v>
       </c>
       <c r="B14" s="16">
-        <v>26837</v>
+        <v>19437</v>
       </c>
       <c r="C14" s="16">
-        <v>23089</v>
+        <v>23252</v>
       </c>
       <c r="D14" s="17">
-        <v>0.16</v>
+        <v>-0.16</v>
       </c>
       <c r="E14" s="16" t="s">
         <v>15</v>
       </c>
       <c r="F14" s="16">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="G14" s="16">
-        <v>26484</v>
+        <v>19020</v>
       </c>
       <c r="H14" s="16">
-        <v>22606</v>
+        <v>22752</v>
       </c>
       <c r="I14" s="16" t="s">
         <v>15</v>
@@ -1698,37 +1698,37 @@
         <v>23</v>
       </c>
       <c r="B15" s="16">
-        <v>32411</v>
+        <v>28704</v>
       </c>
       <c r="C15" s="16">
-        <v>39457</v>
+        <v>32084</v>
       </c>
       <c r="D15" s="17">
-        <v>-0.18</v>
+        <v>-0.11</v>
       </c>
       <c r="E15" s="16">
-        <v>7289</v>
+        <v>6520</v>
       </c>
       <c r="F15" s="16">
-        <v>8211</v>
+        <v>8063</v>
       </c>
       <c r="G15" s="16">
-        <v>24391</v>
+        <v>21383</v>
       </c>
       <c r="H15" s="16">
-        <v>30417</v>
+        <v>23272</v>
       </c>
       <c r="I15" s="16">
-        <v>563</v>
+        <v>603</v>
       </c>
       <c r="J15" s="16">
-        <v>635</v>
+        <v>606</v>
       </c>
       <c r="K15" s="16">
-        <v>168</v>
+        <v>197</v>
       </c>
       <c r="L15" s="16">
-        <v>193</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -1736,37 +1736,37 @@
         <v>24</v>
       </c>
       <c r="B16" s="16">
-        <v>39517</v>
+        <v>39074</v>
       </c>
       <c r="C16" s="16">
-        <v>38058</v>
+        <v>36140</v>
       </c>
       <c r="D16" s="17">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>15</v>
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="E16" s="16">
+        <v>3</v>
       </c>
       <c r="F16" s="16">
         <v>3</v>
       </c>
       <c r="G16" s="16">
-        <v>38993</v>
+        <v>38432</v>
       </c>
       <c r="H16" s="16">
-        <v>37364</v>
+        <v>35506</v>
       </c>
       <c r="I16" s="16" t="s">
         <v>15</v>
       </c>
       <c r="J16" s="16">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="K16" s="16">
-        <v>446</v>
+        <v>550</v>
       </c>
       <c r="L16" s="16">
-        <v>580</v>
+        <v>529</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -1774,37 +1774,37 @@
         <v>25</v>
       </c>
       <c r="B17" s="13">
-        <v>59277</v>
+        <v>61123</v>
       </c>
       <c r="C17" s="13">
-        <v>51407</v>
+        <v>56017</v>
       </c>
       <c r="D17" s="14">
-        <v>0.15</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="E17" s="13">
-        <v>23979</v>
+        <v>24738</v>
       </c>
       <c r="F17" s="13">
-        <v>23374</v>
+        <v>26192</v>
       </c>
       <c r="G17" s="13">
-        <v>33033</v>
+        <v>34064</v>
       </c>
       <c r="H17" s="13">
-        <v>25658</v>
+        <v>27317</v>
       </c>
       <c r="I17" s="13">
-        <v>803</v>
+        <v>688</v>
       </c>
       <c r="J17" s="13">
-        <v>905</v>
+        <v>893</v>
       </c>
       <c r="K17" s="13">
-        <v>1462</v>
+        <v>1634</v>
       </c>
       <c r="L17" s="13">
-        <v>1470</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -1812,37 +1812,37 @@
         <v>26</v>
       </c>
       <c r="B18" s="16">
-        <v>11999</v>
+        <v>8493</v>
       </c>
       <c r="C18" s="16">
-        <v>6982</v>
+        <v>7550</v>
       </c>
       <c r="D18" s="17">
-        <v>0.72</v>
+        <v>0.12</v>
       </c>
       <c r="E18" s="16">
-        <v>894</v>
+        <v>462</v>
       </c>
       <c r="F18" s="16">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="G18" s="16">
-        <v>10619</v>
+        <v>7622</v>
       </c>
       <c r="H18" s="16">
-        <v>6096</v>
+        <v>6635</v>
       </c>
       <c r="I18" s="16">
-        <v>271</v>
+        <v>143</v>
       </c>
       <c r="J18" s="16">
-        <v>342</v>
-      </c>
-      <c r="K18" s="16" t="s">
-        <v>15</v>
+        <v>326</v>
+      </c>
+      <c r="K18" s="16">
+        <v>266</v>
       </c>
       <c r="L18" s="16">
-        <v>283</v>
+        <v>339</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -1850,37 +1850,37 @@
         <v>27</v>
       </c>
       <c r="B19" s="16">
-        <v>11346</v>
+        <v>13742</v>
       </c>
       <c r="C19" s="16">
-        <v>8779</v>
+        <v>11631</v>
       </c>
       <c r="D19" s="17">
-        <v>0.28999999999999998</v>
+        <v>0.18</v>
       </c>
       <c r="E19" s="16">
-        <v>9643</v>
+        <v>10989</v>
       </c>
       <c r="F19" s="16">
-        <v>6354</v>
+        <v>8297</v>
       </c>
       <c r="G19" s="16">
-        <v>1305</v>
+        <v>2345</v>
       </c>
       <c r="H19" s="16">
-        <v>1987</v>
+        <v>2834</v>
       </c>
       <c r="I19" s="16">
+        <v>86</v>
+      </c>
+      <c r="J19" s="16">
         <v>93</v>
       </c>
-      <c r="J19" s="16">
-        <v>97</v>
-      </c>
       <c r="K19" s="16">
-        <v>306</v>
+        <v>322</v>
       </c>
       <c r="L19" s="16">
-        <v>341</v>
+        <v>407</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -1888,37 +1888,37 @@
         <v>28</v>
       </c>
       <c r="B20" s="16">
-        <v>16533</v>
+        <v>16766</v>
       </c>
       <c r="C20" s="16">
-        <v>14635</v>
+        <v>13527</v>
       </c>
       <c r="D20" s="17">
-        <v>0.13</v>
+        <v>0.24</v>
       </c>
       <c r="E20" s="16">
-        <v>5713</v>
+        <v>4441</v>
       </c>
       <c r="F20" s="16">
-        <v>5832</v>
+        <v>5268</v>
       </c>
       <c r="G20" s="16">
-        <v>9774</v>
+        <v>11191</v>
       </c>
       <c r="H20" s="16">
-        <v>7840</v>
+        <v>7287</v>
       </c>
       <c r="I20" s="16">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="J20" s="16">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="K20" s="16">
-        <v>727</v>
+        <v>812</v>
       </c>
       <c r="L20" s="16">
-        <v>666</v>
+        <v>671</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -1926,37 +1926,37 @@
         <v>29</v>
       </c>
       <c r="B21" s="16">
-        <v>14265</v>
+        <v>15581</v>
       </c>
       <c r="C21" s="16">
-        <v>13721</v>
+        <v>15823</v>
       </c>
       <c r="D21" s="17">
-        <v>0.04</v>
+        <v>-1.4999999999999999E-2</v>
       </c>
       <c r="E21" s="16">
-        <v>3336</v>
+        <v>2958</v>
       </c>
       <c r="F21" s="16">
-        <v>4213</v>
+        <v>5342</v>
       </c>
       <c r="G21" s="16">
-        <v>10793</v>
+        <v>12462</v>
       </c>
       <c r="H21" s="16">
-        <v>9335</v>
+        <v>10277</v>
       </c>
       <c r="I21" s="16" t="s">
         <v>15</v>
       </c>
       <c r="J21" s="16">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="K21" s="16">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="L21" s="16">
-        <v>46</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -1964,25 +1964,25 @@
         <v>30</v>
       </c>
       <c r="B22" s="16">
-        <v>5133</v>
+        <v>6542</v>
       </c>
       <c r="C22" s="16">
-        <v>7291</v>
+        <v>7487</v>
       </c>
       <c r="D22" s="17">
-        <v>-0.3</v>
+        <v>-0.13</v>
       </c>
       <c r="E22" s="16">
-        <v>4393</v>
+        <v>5888</v>
       </c>
       <c r="F22" s="16">
-        <v>6715</v>
+        <v>7034</v>
       </c>
       <c r="G22" s="16">
-        <v>542</v>
+        <v>444</v>
       </c>
       <c r="H22" s="16">
-        <v>400</v>
+        <v>285</v>
       </c>
       <c r="I22" s="16" t="s">
         <v>15</v>
@@ -1991,10 +1991,10 @@
         <v>41</v>
       </c>
       <c r="K22" s="16">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="L22" s="16">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -2002,37 +2002,37 @@
         <v>31</v>
       </c>
       <c r="B23" s="13">
-        <v>10839</v>
+        <v>9690</v>
       </c>
       <c r="C23" s="13">
-        <v>7243</v>
+        <v>7413</v>
       </c>
       <c r="D23" s="14">
-        <v>0.5</v>
+        <v>0.31</v>
       </c>
       <c r="E23" s="13">
-        <v>9320</v>
+        <v>8243</v>
       </c>
       <c r="F23" s="13">
-        <v>6428</v>
+        <v>6177</v>
       </c>
       <c r="G23" s="13">
-        <v>714</v>
+        <v>593</v>
       </c>
       <c r="H23" s="13">
-        <v>362</v>
+        <v>673</v>
       </c>
       <c r="I23" s="13">
-        <v>268</v>
+        <v>284</v>
       </c>
       <c r="J23" s="13">
-        <v>189</v>
+        <v>226</v>
       </c>
       <c r="K23" s="13">
-        <v>537</v>
+        <v>570</v>
       </c>
       <c r="L23" s="13">
-        <v>263</v>
+        <v>337</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -2040,19 +2040,19 @@
         <v>32</v>
       </c>
       <c r="B24" s="16">
-        <v>1370</v>
+        <v>1051</v>
       </c>
       <c r="C24" s="16">
-        <v>986</v>
+        <v>693</v>
       </c>
       <c r="D24" s="17">
-        <v>0.39</v>
+        <v>0.52</v>
       </c>
       <c r="E24" s="16">
-        <v>943</v>
+        <v>575</v>
       </c>
       <c r="F24" s="16">
-        <v>774</v>
+        <v>435</v>
       </c>
       <c r="G24" s="16" t="s">
         <v>15</v>
@@ -2064,13 +2064,13 @@
         <v>15</v>
       </c>
       <c r="J24" s="16">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="K24" s="16">
-        <v>378</v>
+        <v>427</v>
       </c>
       <c r="L24" s="16">
-        <v>165</v>
+        <v>224</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -2078,19 +2078,19 @@
         <v>33</v>
       </c>
       <c r="B25" s="16">
-        <v>1416</v>
+        <v>1314</v>
       </c>
       <c r="C25" s="16">
-        <v>537</v>
+        <v>688</v>
       </c>
       <c r="D25" s="17">
-        <v>1.64</v>
+        <v>0.91</v>
       </c>
       <c r="E25" s="16">
-        <v>1360</v>
+        <v>1259</v>
       </c>
       <c r="F25" s="16">
-        <v>513</v>
+        <v>664</v>
       </c>
       <c r="G25" s="16">
         <v>0</v>
@@ -2116,37 +2116,37 @@
         <v>34</v>
       </c>
       <c r="B26" s="16">
-        <v>3428</v>
+        <v>3422</v>
       </c>
       <c r="C26" s="16">
-        <v>3280</v>
+        <v>3133</v>
       </c>
       <c r="D26" s="17">
-        <v>4.4999999999999998E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="E26" s="16">
-        <v>2507</v>
+        <v>2861</v>
       </c>
       <c r="F26" s="16">
-        <v>3065</v>
+        <v>2789</v>
       </c>
       <c r="G26" s="16">
-        <v>708</v>
+        <v>347</v>
       </c>
       <c r="H26" s="16">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="I26" s="16" t="s">
         <v>15</v>
       </c>
       <c r="J26" s="16">
-        <v>63</v>
-      </c>
-      <c r="K26" s="16">
-        <v>71</v>
+        <v>171</v>
+      </c>
+      <c r="K26" s="16" t="s">
+        <v>15</v>
       </c>
       <c r="L26" s="16">
-        <v>32</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -2154,37 +2154,37 @@
         <v>35</v>
       </c>
       <c r="B27" s="16">
-        <v>3054</v>
+        <v>2166</v>
       </c>
       <c r="C27" s="16">
-        <v>1598</v>
+        <v>2178</v>
       </c>
       <c r="D27" s="17">
-        <v>0.91</v>
+        <v>-6.0000000000000001E-3</v>
       </c>
       <c r="E27" s="16">
-        <v>2957</v>
+        <v>1824</v>
       </c>
       <c r="F27" s="16">
-        <v>1241</v>
-      </c>
-      <c r="G27" s="16" t="s">
-        <v>15</v>
+        <v>1576</v>
+      </c>
+      <c r="G27" s="16">
+        <v>245</v>
       </c>
       <c r="H27" s="16">
-        <v>242</v>
+        <v>546</v>
       </c>
       <c r="I27" s="16">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="J27" s="16">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="K27" s="16" t="s">
         <v>15</v>
       </c>
       <c r="L27" s="16">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -2192,19 +2192,19 @@
         <v>36</v>
       </c>
       <c r="B28" s="16">
-        <v>478</v>
+        <v>677</v>
       </c>
       <c r="C28" s="16">
-        <v>103</v>
+        <v>154</v>
       </c>
       <c r="D28" s="17">
-        <v>3.66</v>
+        <v>3.39</v>
       </c>
       <c r="E28" s="16">
-        <v>469</v>
+        <v>674</v>
       </c>
       <c r="F28" s="16">
-        <v>102</v>
+        <v>149</v>
       </c>
       <c r="G28" s="16">
         <v>0</v>
@@ -2216,13 +2216,13 @@
         <v>15</v>
       </c>
       <c r="J28" s="16">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="K28" s="16" t="s">
         <v>15</v>
       </c>
       <c r="L28" s="16">
-        <v>0.03</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -2230,19 +2230,19 @@
         <v>37</v>
       </c>
       <c r="B29" s="16">
-        <v>620</v>
+        <v>548</v>
       </c>
       <c r="C29" s="16">
-        <v>449</v>
+        <v>103</v>
       </c>
       <c r="D29" s="17">
-        <v>0.38</v>
+        <v>4.3099999999999996</v>
       </c>
       <c r="E29" s="16">
-        <v>611</v>
+        <v>537</v>
       </c>
       <c r="F29" s="16">
-        <v>443</v>
+        <v>102</v>
       </c>
       <c r="G29" s="16">
         <v>0</v>
@@ -2260,7 +2260,7 @@
         <v>15</v>
       </c>
       <c r="L29" s="16">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -2268,19 +2268,19 @@
         <v>38</v>
       </c>
       <c r="B30" s="16">
-        <v>474</v>
+        <v>513</v>
       </c>
       <c r="C30" s="16">
-        <v>291</v>
+        <v>463</v>
       </c>
       <c r="D30" s="17">
-        <v>0.63</v>
+        <v>0.11</v>
       </c>
       <c r="E30" s="16">
-        <v>474</v>
+        <v>513</v>
       </c>
       <c r="F30" s="16">
-        <v>291</v>
+        <v>463</v>
       </c>
       <c r="G30" s="16">
         <v>0</v>
@@ -2306,37 +2306,37 @@
         <v>39</v>
       </c>
       <c r="B31" s="13">
-        <v>183438</v>
+        <v>166153</v>
       </c>
       <c r="C31" s="13">
-        <v>182949</v>
+        <v>180110</v>
       </c>
       <c r="D31" s="14">
-        <v>3.0000000000000001E-3</v>
+        <v>-7.6999999999999999E-2</v>
       </c>
       <c r="E31" s="13">
-        <v>147488</v>
+        <v>138530</v>
       </c>
       <c r="F31" s="13">
-        <v>149796</v>
+        <v>144469</v>
       </c>
       <c r="G31" s="13">
-        <v>32650</v>
+        <v>24362</v>
       </c>
       <c r="H31" s="13">
-        <v>30536</v>
-      </c>
-      <c r="I31" s="13" t="s">
-        <v>15</v>
+        <v>32805</v>
+      </c>
+      <c r="I31" s="13">
+        <v>549</v>
       </c>
       <c r="J31" s="13">
-        <v>574</v>
+        <v>621</v>
       </c>
       <c r="K31" s="13">
-        <v>2840</v>
+        <v>2712</v>
       </c>
       <c r="L31" s="13">
-        <v>2043</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -2344,25 +2344,25 @@
         <v>40</v>
       </c>
       <c r="B32" s="16">
-        <v>6499</v>
+        <v>4618</v>
       </c>
       <c r="C32" s="16">
-        <v>3759</v>
+        <v>3096</v>
       </c>
       <c r="D32" s="17">
-        <v>0.73</v>
+        <v>0.49</v>
       </c>
       <c r="E32" s="16" t="s">
         <v>15</v>
       </c>
       <c r="F32" s="16">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G32" s="16">
-        <v>5302</v>
+        <v>3551</v>
       </c>
       <c r="H32" s="16">
-        <v>3163</v>
+        <v>2297</v>
       </c>
       <c r="I32" s="16">
         <v>0</v>
@@ -2371,10 +2371,10 @@
         <v>0</v>
       </c>
       <c r="K32" s="16">
-        <v>1163</v>
+        <v>1041</v>
       </c>
       <c r="L32" s="16">
-        <v>571</v>
+        <v>778</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -2385,7 +2385,7 @@
         <v>15</v>
       </c>
       <c r="C33" s="16">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D33" s="17" t="s">
         <v>15</v>
@@ -2406,7 +2406,7 @@
         <v>15</v>
       </c>
       <c r="J33" s="16">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K33" s="16">
         <v>0</v>
@@ -2420,37 +2420,37 @@
         <v>42</v>
       </c>
       <c r="B34" s="16">
-        <v>97268</v>
+        <v>77278</v>
       </c>
       <c r="C34" s="16">
-        <v>100536</v>
+        <v>92086</v>
       </c>
       <c r="D34" s="17">
-        <v>-3.3000000000000002E-2</v>
+        <v>-0.16</v>
       </c>
       <c r="E34" s="16">
-        <v>90231</v>
+        <v>71137</v>
       </c>
       <c r="F34" s="16">
-        <v>92449</v>
+        <v>82791</v>
       </c>
       <c r="G34" s="16">
-        <v>6328</v>
+        <v>5366</v>
       </c>
       <c r="H34" s="16">
-        <v>7287</v>
+        <v>8537</v>
       </c>
       <c r="I34" s="16" t="s">
         <v>15</v>
       </c>
       <c r="J34" s="16">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K34" s="16">
-        <v>689</v>
+        <v>756</v>
       </c>
       <c r="L34" s="16">
-        <v>782</v>
+        <v>743</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -2458,25 +2458,25 @@
         <v>43</v>
       </c>
       <c r="B35" s="16">
-        <v>26437</v>
+        <v>24268</v>
       </c>
       <c r="C35" s="16">
-        <v>29940</v>
+        <v>27825</v>
       </c>
       <c r="D35" s="17">
-        <v>-0.12</v>
+        <v>-0.13</v>
       </c>
       <c r="E35" s="16">
-        <v>21410</v>
+        <v>20493</v>
       </c>
       <c r="F35" s="16">
-        <v>20741</v>
+        <v>20316</v>
       </c>
       <c r="G35" s="16">
-        <v>4625</v>
+        <v>3458</v>
       </c>
       <c r="H35" s="16">
-        <v>8849</v>
+        <v>7200</v>
       </c>
       <c r="I35" s="16">
         <v>0</v>
@@ -2485,10 +2485,10 @@
         <v>0</v>
       </c>
       <c r="K35" s="16">
-        <v>403</v>
+        <v>318</v>
       </c>
       <c r="L35" s="16">
-        <v>350</v>
+        <v>309</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -2496,13 +2496,13 @@
         <v>44</v>
       </c>
       <c r="B36" s="16">
-        <v>3595</v>
+        <v>975</v>
       </c>
       <c r="C36" s="16">
-        <v>3316</v>
+        <v>3582</v>
       </c>
       <c r="D36" s="17">
-        <v>8.4000000000000005E-2</v>
+        <v>-0.73</v>
       </c>
       <c r="E36" s="16">
         <v>0</v>
@@ -2511,22 +2511,22 @@
         <v>0</v>
       </c>
       <c r="G36" s="16">
-        <v>3175</v>
+        <v>471</v>
       </c>
       <c r="H36" s="16">
-        <v>2798</v>
+        <v>3016</v>
       </c>
       <c r="I36" s="16" t="s">
         <v>15</v>
       </c>
       <c r="J36" s="16">
-        <v>493</v>
-      </c>
-      <c r="K36" s="16" t="s">
-        <v>15</v>
+        <v>542</v>
+      </c>
+      <c r="K36" s="16">
+        <v>36</v>
       </c>
       <c r="L36" s="16">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -2534,37 +2534,37 @@
         <v>45</v>
       </c>
       <c r="B37" s="16">
-        <v>18708</v>
+        <v>23888</v>
       </c>
       <c r="C37" s="16">
-        <v>19493</v>
+        <v>22337</v>
       </c>
       <c r="D37" s="17">
-        <v>-0.04</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="E37" s="16">
-        <v>14749</v>
+        <v>22187</v>
       </c>
       <c r="F37" s="16">
-        <v>16970</v>
+        <v>21036</v>
       </c>
       <c r="G37" s="16">
-        <v>3873</v>
+        <v>1623</v>
       </c>
       <c r="H37" s="16">
-        <v>2435</v>
+        <v>1218</v>
       </c>
       <c r="I37" s="16">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J37" s="16">
         <v>6</v>
       </c>
       <c r="K37" s="16">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="L37" s="16">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -2572,25 +2572,25 @@
         <v>46</v>
       </c>
       <c r="B38" s="16">
-        <v>10913</v>
+        <v>13483</v>
       </c>
       <c r="C38" s="16">
-        <v>12480</v>
+        <v>13704</v>
       </c>
       <c r="D38" s="17">
-        <v>-0.13</v>
+        <v>-1.6E-2</v>
       </c>
       <c r="E38" s="16">
-        <v>9665</v>
+        <v>8878</v>
       </c>
       <c r="F38" s="16">
-        <v>11934</v>
+        <v>12130</v>
       </c>
       <c r="G38" s="16">
-        <v>1195</v>
+        <v>4567</v>
       </c>
       <c r="H38" s="16">
-        <v>522</v>
+        <v>1558</v>
       </c>
       <c r="I38" s="16" t="s">
         <v>15</v>
@@ -2599,10 +2599,10 @@
         <v>2</v>
       </c>
       <c r="K38" s="16">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="L38" s="16">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -2610,37 +2610,37 @@
         <v>47</v>
       </c>
       <c r="B39" s="16">
-        <v>18135</v>
+        <v>20995</v>
       </c>
       <c r="C39" s="16">
-        <v>11837</v>
+        <v>16676</v>
       </c>
       <c r="D39" s="17">
-        <v>0.53</v>
+        <v>0.26</v>
       </c>
       <c r="E39" s="16">
-        <v>11306</v>
+        <v>15705</v>
       </c>
       <c r="F39" s="16">
-        <v>7660</v>
+        <v>8138</v>
       </c>
       <c r="G39" s="16">
-        <v>6609</v>
+        <v>5069</v>
       </c>
       <c r="H39" s="16">
-        <v>3963</v>
+        <v>8262</v>
       </c>
       <c r="I39" s="16" t="s">
         <v>15</v>
       </c>
       <c r="J39" s="16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K39" s="16">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L39" s="16">
-        <v>211</v>
+        <v>271</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -2648,25 +2648,25 @@
         <v>48</v>
       </c>
       <c r="B40" s="16">
-        <v>1845</v>
+        <v>603</v>
       </c>
       <c r="C40" s="16">
-        <v>1536</v>
+        <v>754</v>
       </c>
       <c r="D40" s="17">
-        <v>0.2</v>
+        <v>-0.2</v>
       </c>
       <c r="E40" s="16">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="F40" s="16">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="G40" s="16">
-        <v>1542</v>
+        <v>259</v>
       </c>
       <c r="H40" s="16">
-        <v>1520</v>
+        <v>717</v>
       </c>
       <c r="I40" s="16">
         <v>0</v>
@@ -2675,7 +2675,7 @@
         <v>0</v>
       </c>
       <c r="K40" s="16">
-        <v>210</v>
+        <v>239</v>
       </c>
       <c r="L40" s="16">
         <v>0</v>
@@ -2686,37 +2686,37 @@
         <v>49</v>
       </c>
       <c r="B41" s="13">
-        <v>71322</v>
+        <v>60762</v>
       </c>
       <c r="C41" s="13">
-        <v>67124</v>
+        <v>68861</v>
       </c>
       <c r="D41" s="14">
-        <v>6.3E-2</v>
+        <v>-0.12</v>
       </c>
       <c r="E41" s="13">
-        <v>47858</v>
+        <v>38429</v>
       </c>
       <c r="F41" s="13">
-        <v>41668</v>
+        <v>44557</v>
       </c>
       <c r="G41" s="13">
-        <v>22340</v>
+        <v>21143</v>
       </c>
       <c r="H41" s="13">
-        <v>24199</v>
+        <v>23089</v>
       </c>
       <c r="I41" s="13" t="s">
         <v>15</v>
       </c>
       <c r="J41" s="13">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="K41" s="13">
-        <v>1045</v>
+        <v>1094</v>
       </c>
       <c r="L41" s="13">
-        <v>1169</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -2724,25 +2724,25 @@
         <v>50</v>
       </c>
       <c r="B42" s="16">
-        <v>32348</v>
+        <v>30894</v>
       </c>
       <c r="C42" s="16">
-        <v>32070</v>
+        <v>31865</v>
       </c>
       <c r="D42" s="17">
-        <v>8.9999999999999993E-3</v>
+        <v>-0.03</v>
       </c>
       <c r="E42" s="16">
-        <v>9522</v>
+        <v>9388</v>
       </c>
       <c r="F42" s="16">
-        <v>8518</v>
+        <v>10518</v>
       </c>
       <c r="G42" s="16">
-        <v>22272</v>
+        <v>20956</v>
       </c>
       <c r="H42" s="16">
-        <v>22896</v>
+        <v>20709</v>
       </c>
       <c r="I42" s="16">
         <v>0</v>
@@ -2751,10 +2751,10 @@
         <v>0</v>
       </c>
       <c r="K42" s="16">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="L42" s="16">
-        <v>656</v>
+        <v>639</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -2762,25 +2762,25 @@
         <v>51</v>
       </c>
       <c r="B43" s="16">
-        <v>4840</v>
+        <v>4364</v>
       </c>
       <c r="C43" s="16">
-        <v>6305</v>
+        <v>5490</v>
       </c>
       <c r="D43" s="17">
-        <v>-0.23</v>
+        <v>-0.2</v>
       </c>
       <c r="E43" s="16">
-        <v>4671</v>
+        <v>4052</v>
       </c>
       <c r="F43" s="16">
-        <v>5296</v>
+        <v>5309</v>
       </c>
       <c r="G43" s="16">
-        <v>59</v>
+        <v>182</v>
       </c>
       <c r="H43" s="16">
-        <v>790</v>
+        <v>0</v>
       </c>
       <c r="I43" s="16">
         <v>0</v>
@@ -2792,7 +2792,7 @@
         <v>15</v>
       </c>
       <c r="L43" s="16">
-        <v>219</v>
+        <v>180</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -2800,37 +2800,37 @@
         <v>52</v>
       </c>
       <c r="B44" s="16">
-        <v>27475</v>
+        <v>21515</v>
       </c>
       <c r="C44" s="16">
-        <v>23997</v>
+        <v>25867</v>
       </c>
       <c r="D44" s="17">
-        <v>0.14000000000000001</v>
+        <v>-0.17</v>
       </c>
       <c r="E44" s="16">
-        <v>27260</v>
+        <v>21307</v>
       </c>
       <c r="F44" s="16">
-        <v>23291</v>
+        <v>23289</v>
       </c>
       <c r="G44" s="16">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H44" s="16">
-        <v>513</v>
+        <v>2381</v>
       </c>
       <c r="I44" s="16" t="s">
         <v>15</v>
       </c>
       <c r="J44" s="16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K44" s="16">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L44" s="16">
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
@@ -2838,19 +2838,19 @@
         <v>53</v>
       </c>
       <c r="B45" s="16">
-        <v>6659</v>
+        <v>3989</v>
       </c>
       <c r="C45" s="16">
-        <v>4751</v>
+        <v>5640</v>
       </c>
       <c r="D45" s="17">
-        <v>0.4</v>
+        <v>-0.28999999999999998</v>
       </c>
       <c r="E45" s="16">
-        <v>6404</v>
+        <v>3682</v>
       </c>
       <c r="F45" s="16">
-        <v>4562</v>
+        <v>5442</v>
       </c>
       <c r="G45" s="16">
         <v>0</v>
@@ -2862,10 +2862,10 @@
         <v>15</v>
       </c>
       <c r="J45" s="16">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="K45" s="16">
-        <v>180</v>
+        <v>213</v>
       </c>
       <c r="L45" s="16">
         <v>104</v>
@@ -2876,37 +2876,37 @@
         <v>54</v>
       </c>
       <c r="B46" s="13">
-        <v>189288</v>
+        <v>177499</v>
       </c>
       <c r="C46" s="13">
-        <v>203012</v>
+        <v>189543</v>
       </c>
       <c r="D46" s="14">
-        <v>-6.8000000000000005E-2</v>
+        <v>-6.4000000000000001E-2</v>
       </c>
       <c r="E46" s="13">
-        <v>62726</v>
+        <v>55318</v>
       </c>
       <c r="F46" s="13">
-        <v>63848</v>
+        <v>59724</v>
       </c>
       <c r="G46" s="13">
-        <v>87976</v>
+        <v>81109</v>
       </c>
       <c r="H46" s="13">
-        <v>101729</v>
+        <v>90721</v>
       </c>
       <c r="I46" s="13">
-        <v>665</v>
+        <v>605</v>
       </c>
       <c r="J46" s="13">
-        <v>517</v>
+        <v>423</v>
       </c>
       <c r="K46" s="13">
-        <v>37922</v>
+        <v>40468</v>
       </c>
       <c r="L46" s="13">
-        <v>36918</v>
+        <v>38675</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -2914,25 +2914,25 @@
         <v>55</v>
       </c>
       <c r="B47" s="16">
-        <v>8905</v>
+        <v>10468</v>
       </c>
       <c r="C47" s="16">
-        <v>3902</v>
+        <v>5039</v>
       </c>
       <c r="D47" s="17">
-        <v>1.28</v>
+        <v>1.08</v>
       </c>
       <c r="E47" s="16">
-        <v>4036</v>
+        <v>4510</v>
       </c>
       <c r="F47" s="16">
-        <v>1265</v>
+        <v>1771</v>
       </c>
       <c r="G47" s="16">
-        <v>4739</v>
+        <v>5814</v>
       </c>
       <c r="H47" s="16">
-        <v>2482</v>
+        <v>3097</v>
       </c>
       <c r="I47" s="16" t="s">
         <v>15</v>
@@ -2941,10 +2941,10 @@
         <v>1</v>
       </c>
       <c r="K47" s="16">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="L47" s="16">
-        <v>154</v>
+        <v>169</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -2952,37 +2952,37 @@
         <v>56</v>
       </c>
       <c r="B48" s="16">
-        <v>39011</v>
+        <v>36580</v>
       </c>
       <c r="C48" s="16">
-        <v>45281</v>
+        <v>46058</v>
       </c>
       <c r="D48" s="17">
-        <v>-0.14000000000000001</v>
+        <v>-0.21</v>
       </c>
       <c r="E48" s="16">
-        <v>19816</v>
+        <v>16812</v>
       </c>
       <c r="F48" s="16">
-        <v>24978</v>
+        <v>25221</v>
       </c>
       <c r="G48" s="16">
-        <v>2470</v>
+        <v>2364</v>
       </c>
       <c r="H48" s="16">
-        <v>3538</v>
+        <v>3448</v>
       </c>
       <c r="I48" s="16" t="s">
         <v>15</v>
       </c>
       <c r="J48" s="16">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K48" s="16">
-        <v>16598</v>
+        <v>17272</v>
       </c>
       <c r="L48" s="16">
-        <v>16619</v>
+        <v>17242</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
@@ -2990,25 +2990,25 @@
         <v>57</v>
       </c>
       <c r="B49" s="16">
-        <v>18651</v>
+        <v>20971</v>
       </c>
       <c r="C49" s="16">
-        <v>16380</v>
+        <v>20586</v>
       </c>
       <c r="D49" s="17">
-        <v>0.14000000000000001</v>
+        <v>1.9E-2</v>
       </c>
       <c r="E49" s="16">
-        <v>12772</v>
+        <v>14075</v>
       </c>
       <c r="F49" s="16">
-        <v>11155</v>
+        <v>13955</v>
       </c>
       <c r="G49" s="16">
-        <v>5788</v>
+        <v>6808</v>
       </c>
       <c r="H49" s="16">
-        <v>5136</v>
+        <v>6507</v>
       </c>
       <c r="I49" s="16" t="s">
         <v>15</v>
@@ -3017,10 +3017,10 @@
         <v>0</v>
       </c>
       <c r="K49" s="16">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L49" s="16">
-        <v>89</v>
+        <v>124</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
@@ -3028,37 +3028,37 @@
         <v>58</v>
       </c>
       <c r="B50" s="16">
-        <v>122722</v>
+        <v>109481</v>
       </c>
       <c r="C50" s="16">
-        <v>137449</v>
+        <v>117860</v>
       </c>
       <c r="D50" s="17">
-        <v>-0.11</v>
+        <v>-7.0999999999999994E-2</v>
       </c>
       <c r="E50" s="16">
-        <v>26102</v>
+        <v>19920</v>
       </c>
       <c r="F50" s="16">
-        <v>26450</v>
+        <v>18777</v>
       </c>
       <c r="G50" s="16">
-        <v>74978</v>
+        <v>66124</v>
       </c>
       <c r="H50" s="16">
-        <v>90572</v>
+        <v>77669</v>
       </c>
       <c r="I50" s="16">
-        <v>528</v>
+        <v>464</v>
       </c>
       <c r="J50" s="16">
-        <v>370</v>
+        <v>274</v>
       </c>
       <c r="K50" s="16">
-        <v>21113</v>
+        <v>22973</v>
       </c>
       <c r="L50" s="16">
-        <v>20057</v>
+        <v>21140</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
@@ -3066,37 +3066,37 @@
         <v>59</v>
       </c>
       <c r="B51" s="13">
-        <v>55578</v>
+        <v>43138</v>
       </c>
       <c r="C51" s="13">
-        <v>64872</v>
+        <v>56953</v>
       </c>
       <c r="D51" s="14">
-        <v>-0.14000000000000001</v>
+        <v>-0.24</v>
       </c>
       <c r="E51" s="13">
-        <v>37717</v>
+        <v>33309</v>
       </c>
       <c r="F51" s="13">
-        <v>47951</v>
+        <v>42020</v>
       </c>
       <c r="G51" s="13">
-        <v>16510</v>
+        <v>8551</v>
       </c>
       <c r="H51" s="13">
-        <v>15580</v>
+        <v>13612</v>
       </c>
       <c r="I51" s="13">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="J51" s="13">
-        <v>412</v>
+        <v>365</v>
       </c>
       <c r="K51" s="13">
-        <v>997</v>
+        <v>936</v>
       </c>
       <c r="L51" s="13">
-        <v>928</v>
+        <v>957</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
@@ -3104,31 +3104,31 @@
         <v>60</v>
       </c>
       <c r="B52" s="16">
-        <v>20900</v>
+        <v>11469</v>
       </c>
       <c r="C52" s="16">
-        <v>24522</v>
+        <v>17750</v>
       </c>
       <c r="D52" s="17">
-        <v>-0.15</v>
+        <v>-0.35</v>
       </c>
       <c r="E52" s="16">
-        <v>10001</v>
+        <v>6889</v>
       </c>
       <c r="F52" s="16">
-        <v>15108</v>
+        <v>10533</v>
       </c>
       <c r="G52" s="16">
-        <v>10797</v>
+        <v>4479</v>
       </c>
       <c r="H52" s="16">
-        <v>9268</v>
-      </c>
-      <c r="I52" s="16" t="s">
-        <v>15</v>
+        <v>7114</v>
+      </c>
+      <c r="I52" s="16">
+        <v>101</v>
       </c>
       <c r="J52" s="16">
-        <v>147</v>
+        <v>103</v>
       </c>
       <c r="K52" s="16">
         <v>0</v>
@@ -3142,37 +3142,37 @@
         <v>61</v>
       </c>
       <c r="B53" s="16">
-        <v>5661</v>
+        <v>5455</v>
       </c>
       <c r="C53" s="16">
-        <v>7748</v>
+        <v>9582</v>
       </c>
       <c r="D53" s="17">
-        <v>-0.27</v>
+        <v>-0.43</v>
       </c>
       <c r="E53" s="16">
-        <v>4781</v>
+        <v>4508</v>
       </c>
       <c r="F53" s="16">
-        <v>6194</v>
+        <v>8219</v>
       </c>
       <c r="G53" s="16">
-        <v>844</v>
+        <v>929</v>
       </c>
       <c r="H53" s="16">
-        <v>1531</v>
+        <v>1332</v>
       </c>
       <c r="I53" s="16">
-        <v>14</v>
+        <v>0.01</v>
       </c>
       <c r="J53" s="16">
-        <v>0.32</v>
+        <v>3</v>
       </c>
       <c r="K53" s="16" t="s">
         <v>15</v>
       </c>
       <c r="L53" s="16">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
@@ -3180,37 +3180,37 @@
         <v>62</v>
       </c>
       <c r="B54" s="16">
-        <v>1393</v>
+        <v>870</v>
       </c>
       <c r="C54" s="16">
-        <v>2544</v>
+        <v>2302</v>
       </c>
       <c r="D54" s="17">
-        <v>-0.45</v>
+        <v>-0.62</v>
       </c>
       <c r="E54" s="16">
-        <v>445</v>
+        <v>268</v>
       </c>
       <c r="F54" s="16">
-        <v>1201</v>
+        <v>1023</v>
       </c>
       <c r="G54" s="16">
-        <v>886</v>
+        <v>530</v>
       </c>
       <c r="H54" s="16">
-        <v>1276</v>
+        <v>1182</v>
       </c>
       <c r="I54" s="16">
         <v>0</v>
       </c>
       <c r="J54" s="16">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K54" s="16">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="L54" s="16">
-        <v>39</v>
+        <v>70</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
@@ -3221,7 +3221,7 @@
         <v>15</v>
       </c>
       <c r="C55" s="16">
-        <v>514</v>
+        <v>591</v>
       </c>
       <c r="D55" s="17" t="s">
         <v>15</v>
@@ -3230,13 +3230,13 @@
         <v>15</v>
       </c>
       <c r="F55" s="16">
-        <v>466</v>
+        <v>538</v>
       </c>
       <c r="G55" s="16" t="s">
         <v>15</v>
       </c>
       <c r="H55" s="16">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="I55" s="16">
         <v>0</v>
@@ -3256,37 +3256,37 @@
         <v>64</v>
       </c>
       <c r="B56" s="16">
-        <v>15251</v>
+        <v>15674</v>
       </c>
       <c r="C56" s="16">
-        <v>18278</v>
+        <v>15449</v>
       </c>
       <c r="D56" s="17">
-        <v>-0.17</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="E56" s="16">
-        <v>13618</v>
+        <v>14041</v>
       </c>
       <c r="F56" s="16">
-        <v>16579</v>
+        <v>13821</v>
       </c>
       <c r="G56" s="16">
-        <v>1347</v>
+        <v>1367</v>
       </c>
       <c r="H56" s="16">
-        <v>1407</v>
-      </c>
-      <c r="I56" s="16" t="s">
-        <v>15</v>
+        <v>1379</v>
+      </c>
+      <c r="I56" s="16">
+        <v>60</v>
       </c>
       <c r="J56" s="16">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="K56" s="16">
-        <v>226</v>
+        <v>205</v>
       </c>
       <c r="L56" s="16">
-        <v>230</v>
+        <v>196</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
@@ -3294,37 +3294,37 @@
         <v>65</v>
       </c>
       <c r="B57" s="16">
-        <v>7109</v>
+        <v>5169</v>
       </c>
       <c r="C57" s="16">
-        <v>6030</v>
+        <v>5519</v>
       </c>
       <c r="D57" s="17">
-        <v>0.18</v>
+        <v>-6.3E-2</v>
       </c>
       <c r="E57" s="16">
-        <v>4572</v>
+        <v>3960</v>
       </c>
       <c r="F57" s="16">
-        <v>3937</v>
+        <v>2916</v>
       </c>
       <c r="G57" s="16">
-        <v>2421</v>
+        <v>1101</v>
       </c>
       <c r="H57" s="16">
-        <v>1986</v>
-      </c>
-      <c r="I57" s="16" t="s">
-        <v>15</v>
+        <v>2498</v>
+      </c>
+      <c r="I57" s="16">
+        <v>108</v>
       </c>
       <c r="J57" s="16">
-        <v>106</v>
-      </c>
-      <c r="K57" s="16" t="s">
-        <v>15</v>
+        <v>103</v>
+      </c>
+      <c r="K57" s="16">
+        <v>0</v>
       </c>
       <c r="L57" s="16">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
@@ -3332,37 +3332,37 @@
         <v>66</v>
       </c>
       <c r="B58" s="16">
-        <v>4437</v>
+        <v>3699</v>
       </c>
       <c r="C58" s="16">
-        <v>4768</v>
+        <v>5292</v>
       </c>
       <c r="D58" s="17">
-        <v>-7.0000000000000007E-2</v>
+        <v>-0.3</v>
       </c>
       <c r="E58" s="16">
-        <v>3839</v>
+        <v>3204</v>
       </c>
       <c r="F58" s="16">
-        <v>4305</v>
+        <v>4820</v>
       </c>
       <c r="G58" s="16" t="s">
         <v>15</v>
       </c>
       <c r="H58" s="16">
-        <v>64</v>
-      </c>
-      <c r="I58" s="16" t="s">
-        <v>15</v>
+        <v>53</v>
+      </c>
+      <c r="I58" s="16">
+        <v>73</v>
       </c>
       <c r="J58" s="16">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="K58" s="16">
-        <v>352</v>
+        <v>315</v>
       </c>
       <c r="L58" s="16">
-        <v>331</v>
+        <v>343</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
@@ -3370,19 +3370,19 @@
         <v>67</v>
       </c>
       <c r="B59" s="16">
-        <v>421</v>
+        <v>405</v>
       </c>
       <c r="C59" s="16">
         <v>466</v>
       </c>
       <c r="D59" s="17">
-        <v>-9.5000000000000001E-2</v>
+        <v>-0.13</v>
       </c>
       <c r="E59" s="16" t="s">
         <v>15</v>
       </c>
       <c r="F59" s="16">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="G59" s="16" t="s">
         <v>15</v>
@@ -3397,10 +3397,10 @@
         <v>0</v>
       </c>
       <c r="K59" s="16">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="L59" s="16">
-        <v>305</v>
+        <v>316</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
@@ -3408,37 +3408,37 @@
         <v>68</v>
       </c>
       <c r="B60" s="13">
-        <v>78242</v>
+        <v>66649</v>
       </c>
       <c r="C60" s="13">
-        <v>109850</v>
+        <v>84859</v>
       </c>
       <c r="D60" s="14">
-        <v>-0.28999999999999998</v>
+        <v>-0.21</v>
       </c>
       <c r="E60" s="13">
-        <v>30131</v>
+        <v>25456</v>
       </c>
       <c r="F60" s="13">
-        <v>37134</v>
+        <v>32465</v>
       </c>
       <c r="G60" s="13">
-        <v>41650</v>
+        <v>34520</v>
       </c>
       <c r="H60" s="13">
-        <v>64422</v>
+        <v>45070</v>
       </c>
       <c r="I60" s="13">
-        <v>1229</v>
+        <v>1250</v>
       </c>
       <c r="J60" s="13">
-        <v>1571</v>
+        <v>1247</v>
       </c>
       <c r="K60" s="13">
-        <v>5232</v>
+        <v>5424</v>
       </c>
       <c r="L60" s="13">
-        <v>6723</v>
+        <v>6078</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
@@ -3446,37 +3446,37 @@
         <v>69</v>
       </c>
       <c r="B61" s="16">
-        <v>65578</v>
+        <v>54430</v>
       </c>
       <c r="C61" s="16">
-        <v>87906</v>
+        <v>63381</v>
       </c>
       <c r="D61" s="17">
-        <v>-0.25</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="E61" s="16">
-        <v>22653</v>
+        <v>17912</v>
       </c>
       <c r="F61" s="16">
-        <v>26187</v>
+        <v>21812</v>
       </c>
       <c r="G61" s="16">
-        <v>36590</v>
+        <v>29987</v>
       </c>
       <c r="H61" s="16">
-        <v>53556</v>
+        <v>34392</v>
       </c>
       <c r="I61" s="16">
-        <v>1174</v>
+        <v>1189</v>
       </c>
       <c r="J61" s="16">
-        <v>1506</v>
+        <v>1180</v>
       </c>
       <c r="K61" s="16">
-        <v>5162</v>
+        <v>5341</v>
       </c>
       <c r="L61" s="16">
-        <v>6656</v>
+        <v>5997</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
@@ -3484,37 +3484,37 @@
         <v>70</v>
       </c>
       <c r="B62" s="16">
-        <v>7764</v>
+        <v>7719</v>
       </c>
       <c r="C62" s="16">
-        <v>10924</v>
+        <v>11074</v>
       </c>
       <c r="D62" s="17">
-        <v>-0.28999999999999998</v>
+        <v>-0.3</v>
       </c>
       <c r="E62" s="16">
-        <v>4390</v>
+        <v>4280</v>
       </c>
       <c r="F62" s="16">
-        <v>4684</v>
+        <v>4427</v>
       </c>
       <c r="G62" s="16">
-        <v>3290</v>
+        <v>3352</v>
       </c>
       <c r="H62" s="16">
-        <v>6140</v>
+        <v>6548</v>
       </c>
       <c r="I62" s="16" t="s">
         <v>15</v>
       </c>
       <c r="J62" s="16">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K62" s="16">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L62" s="16">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
@@ -3522,25 +3522,25 @@
         <v>71</v>
       </c>
       <c r="B63" s="16">
-        <v>4900</v>
+        <v>4500</v>
       </c>
       <c r="C63" s="16">
-        <v>11020</v>
+        <v>10404</v>
       </c>
       <c r="D63" s="17">
-        <v>-0.56000000000000005</v>
+        <v>-0.56999999999999995</v>
       </c>
       <c r="E63" s="16">
-        <v>3088</v>
+        <v>3264</v>
       </c>
       <c r="F63" s="16">
-        <v>6263</v>
+        <v>6225</v>
       </c>
       <c r="G63" s="16">
-        <v>1770</v>
+        <v>1180</v>
       </c>
       <c r="H63" s="16">
-        <v>4726</v>
+        <v>4131</v>
       </c>
       <c r="I63" s="16" t="s">
         <v>15</v>
@@ -3549,10 +3549,10 @@
         <v>9</v>
       </c>
       <c r="K63" s="16">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="L63" s="16">
-        <v>22</v>
+        <v>40</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
@@ -3560,19 +3560,19 @@
         <v>72</v>
       </c>
       <c r="B64" s="13">
-        <v>1808</v>
+        <v>1845</v>
       </c>
       <c r="C64" s="13">
-        <v>2175</v>
+        <v>2571</v>
       </c>
       <c r="D64" s="14">
-        <v>-0.17</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="E64" s="13">
-        <v>1732</v>
+        <v>1763</v>
       </c>
       <c r="F64" s="13">
-        <v>2114</v>
+        <v>2498</v>
       </c>
       <c r="G64" s="13">
         <v>0</v>
@@ -3590,7 +3590,7 @@
         <v>15</v>
       </c>
       <c r="L64" s="13">
-        <v>61</v>
+        <v>74</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
@@ -3598,19 +3598,19 @@
         <v>73</v>
       </c>
       <c r="B65" s="16">
-        <v>1808</v>
+        <v>1845</v>
       </c>
       <c r="C65" s="16">
-        <v>2175</v>
+        <v>2571</v>
       </c>
       <c r="D65" s="17">
-        <v>-0.17</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="E65" s="16">
-        <v>1732</v>
+        <v>1763</v>
       </c>
       <c r="F65" s="16">
-        <v>2114</v>
+        <v>2498</v>
       </c>
       <c r="G65" s="16">
         <v>0</v>
@@ -3628,7 +3628,7 @@
         <v>15</v>
       </c>
       <c r="L65" s="16">
-        <v>61</v>
+        <v>74</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
@@ -3674,37 +3674,37 @@
         <v>76</v>
       </c>
       <c r="B67" s="13">
-        <v>775514</v>
+        <v>700215</v>
       </c>
       <c r="C67" s="13">
-        <v>824878</v>
+        <v>767336</v>
       </c>
       <c r="D67" s="14">
-        <v>-0.06</v>
+        <v>-8.6999999999999994E-2</v>
       </c>
       <c r="E67" s="13">
-        <v>368436</v>
+        <v>332389</v>
       </c>
       <c r="F67" s="13">
-        <v>380830</v>
+        <v>366510</v>
       </c>
       <c r="G67" s="13">
-        <v>350473</v>
+        <v>307969</v>
       </c>
       <c r="H67" s="13">
-        <v>386725</v>
+        <v>342625</v>
       </c>
       <c r="I67" s="13">
-        <v>5144</v>
+        <v>5332</v>
       </c>
       <c r="J67" s="13">
-        <v>5943</v>
+        <v>5470</v>
       </c>
       <c r="K67" s="13">
-        <v>51461</v>
+        <v>54526</v>
       </c>
       <c r="L67" s="13">
-        <v>51380</v>
+        <v>52732</v>
       </c>
     </row>
     <row r="68" spans="1:12" ht="78" customHeight="1" x14ac:dyDescent="0.25">
